--- a/steamcase/activity/activityalertcase.xlsx
+++ b/steamcase/activity/activityalertcase.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>caseid</t>
   </si>
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>"resourceId": "111"
-"title": "QUEEN'S PALACE高级定制馆1-自动化"
+"title": "QUEENS PALACE高级定制馆1-自动化"
 "subTitle": "QUEEN'S PALACE高级定制馆-活动副标题"
 "deliverType": 0
 "vendorIdList": [3]
@@ -112,6 +112,15 @@
 "skulist":2
 "imglist":2
 "sharelist":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preInterfaceAddOneActivity
+tearDBdel_t_content_picture_byTitle
+tearDBdel_t_sku_byTitle
+tearDBdel_t_vendor_rel_byTitle
+tearDBdel_t_tag_rel_byTitle
+tearDBdel_t_resource_byTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +500,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,7 +508,7 @@
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="40.375" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="70.125" customWidth="1"/>
     <col min="7" max="7" width="29.625" customWidth="1"/>
@@ -532,7 +541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -542,7 +551,9 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>

--- a/steamcase/activity/activityalertcase.xlsx
+++ b/steamcase/activity/activityalertcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9947A567-C4B0-431F-99AC-C514A00D903E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -59,10 +60,6 @@
   </si>
   <si>
     <t>修改文章正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-resource/admin/product/update-activity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -123,11 +120,15 @@
 tearDBdel_t_resource_byTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/operation-manage/product/update-activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,19 +547,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/activity/activityalertcase.xlsx
+++ b/steamcase/activity/activityalertcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9947A567-C4B0-431F-99AC-C514A00D903E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{191D69F7-95F2-465F-9D32-C35F3D26A031}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>caseid</t>
   </si>
@@ -52,14 +52,6 @@
   </si>
   <si>
     <t>"code":"000000"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>media_alert_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改文章正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,7 +113,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/operation-manage/product/update-activity</t>
+    <t>修改活动正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"resourceId": "111"
+"title": "QUEENS PALACE高级定制馆1-自动化"
+"subTitle": "QUEEN'S PALACE高级定制馆-活动副标题"
+"deliverType": 0
+"vendorIdList": [3]
+"resourceTypeId": 11
+"content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;fQueen’s Palace于2011年9月创立，是一家国内高级定制婚纱礼服奢侈品牌。自品牌创立以来，Queen’s Palace在沪上高定婚纱品牌的殿堂一直雄踞顶端，专注于婚纱定制的每一处细节。&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
+"shareType": 1
+"shareTitle": "QUEEN'S PALACE高级定制馆-分享标题"
+"shareDescription": "QUEEN'S PALACE高级定制馆-分享描述"
+"sharePicturePath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101830_796382.jpg"
+"province": "重庆市"
+"city": "重庆郊县"
+"addressDetail": "肇嘉浜路356号(襄阳南路路口)"
+"thumbUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101738_928360.jpg"
+"bannerUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101741_710087.jpg"
+"imgListpicturePath1": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101747_909470.jpg"
+"imgListpicturePath2": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101749_880315.jpg"
+"cornerMask": "商品"
+"offShelfTime": 2764800000
+"entryIdList": [7]
+"tagIdList": [2]
+"skuName1": "套餐1"
+"skuId1": None
+"order1": 1
+"price1": "0.01"
+"originPrice1": "1000"
+"inventory1": "1000"
+"limitCount1": "2"
+"postPrice1": "0.01"
+"skuName2": "套餐2"
+"skuId2": None
+"order2": 2
+"price2": "0.02"
+"originPrice2": "1200"
+"inventory2": "2000"
+"limitCount2": "3"
+"postPrice2": "0.01"
+"state": 1
+"skulist":2
+"imglist":2
+"sharelist":1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_alert_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_alert_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation-manage/product/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/steam-resource/admin/product/update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,26 +599,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/steamcase/activity/activityalertcase.xlsx
+++ b/steamcase/activity/activityalertcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{191D69F7-95F2-465F-9D32-C35F3D26A031}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2742575-3BB8-497D-A7D3-3B55A490B849}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>caseid</t>
   </si>
@@ -59,126 +59,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"resourceId": "111"
-"title": "QUEENS PALACE高级定制馆1-自动化"
+    <t>修改活动正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_alert_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_alert_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改商品正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/operation-manage/product/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "QUEENS PALACE高级定制馆1-自动化"
 "subTitle": "QUEEN'S PALACE高级定制馆-活动副标题"
-"deliverType": 0
-"vendorIdList": [3]
-"resourceTypeId": 12
-"content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;fQueen’s Palace于2011年9月创立，是一家国内高级定制婚纱礼服奢侈品牌。自品牌创立以来，Queen’s Palace在沪上高定婚纱品牌的殿堂一直雄踞顶端，专注于婚纱定制的每一处细节。&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
-"shareType": 1
-"shareTitle": "QUEEN'S PALACE高级定制馆-分享标题"
-"shareDescription": "QUEEN'S PALACE高级定制馆-分享描述"
-"sharePicturePath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101830_796382.jpg"
-"province": "重庆市"
-"city": "重庆郊县"
-"addressDetail": "肇嘉浜路356号(襄阳南路路口)"
-"thumbUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101738_928360.jpg"
-"bannerUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101741_710087.jpg"
-"imgListpicturePath1": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101747_909470.jpg"
-"imgListpicturePath2": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101749_880315.jpg"
-"cornerMask": "商品"
-"offShelfTime": 2764800000
-"entryIdList": [7]
-"tagIdList": [2]
-"skuName1": "套餐1"
-"skuId1": None
-"order1": 1
-"price1": "0.01"
-"originPrice1": "1000"
-"inventory1": "1000"
-"limitCount1": "2"
-"postPrice1": "0.01"
-"skuName2": "套餐2"
-"skuId2": None
-"order2": 2
-"price2": "0.02"
-"originPrice2": "1200"
-"inventory2": "2000"
-"limitCount2": "3"
-"postPrice2": "0.01"
-"state": 1
-"skulist":2
-"imglist":2
-"sharelist":1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preInterfaceAddOneActivity
-tearDBdel_t_content_picture_byTitle
-tearDBdel_t_sku_byTitle
-tearDBdel_t_vendor_rel_byTitle
-tearDBdel_t_tag_rel_byTitle
-tearDBdel_t_resource_byTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改活动正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"resourceId": "111"
-"title": "QUEENS PALACE高级定制馆1-自动化"
-"subTitle": "QUEEN'S PALACE高级定制馆-活动副标题"
-"deliverType": 0
-"vendorIdList": [3]
-"resourceTypeId": 11
-"content": "&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;/head&gt;&lt;body&gt;&lt;p&gt;fQueen’s Palace于2011年9月创立，是一家国内高级定制婚纱礼服奢侈品牌。自品牌创立以来，Queen’s Palace在沪上高定婚纱品牌的殿堂一直雄踞顶端，专注于婚纱定制的每一处细节。&lt;/p&gt;&lt;/body&gt;&lt;/html&gt;"
-"shareType": 1
-"shareTitle": "QUEEN'S PALACE高级定制馆-分享标题"
-"shareDescription": "QUEEN'S PALACE高级定制馆-分享描述"
-"sharePicturePath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101830_796382.jpg"
-"province": "重庆市"
-"city": "重庆郊县"
-"addressDetail": "肇嘉浜路356号(襄阳南路路口)"
-"thumbUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101738_928360.jpg"
-"bannerUrl": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101741_710087.jpg"
-"imgListpicturePath1": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101747_909470.jpg"
-"imgListpicturePath2": "http://uat-steam.opg.cn/_static/admin/images/resource/20180507101749_880315.jpg"
-"cornerMask": "商品"
-"offShelfTime": 2764800000
-"entryIdList": [7]
-"tagIdList": [2]
-"skuName1": "套餐1"
-"skuId1": None
-"order1": 1
-"price1": "0.01"
-"originPrice1": "1000"
-"inventory1": "1000"
-"limitCount1": "2"
-"postPrice1": "0.01"
-"skuName2": "套餐2"
-"skuId2": None
-"order2": 2
-"price2": "0.02"
-"originPrice2": "1200"
-"inventory2": "2000"
-"limitCount2": "3"
-"postPrice2": "0.01"
-"state": 1
-"skulist":2
-"imglist":2
-"sharelist":1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_alert_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_alert_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改商品正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/operation-manage/product/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-resource/admin/product/update</t>
+"reqjsonfile":"alertGoodsReq"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "美式外教科学营"
+"subTitle": "美式外教科学营-活动副标题"
+"reqjsonfile":"alertActivityReq"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +467,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -601,22 +510,20 @@
     </row>
     <row r="2" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -624,22 +531,20 @@
     </row>
     <row r="3" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>

--- a/steamcase/activity/activityalertcase.xlsx
+++ b/steamcase/activity/activityalertcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E2742575-3BB8-497D-A7D3-3B55A490B849}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2AF9448-5EEC-48D7-B0DD-4EF9A67F9068}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,15 +79,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"title": "QUEENS PALACE高级定制馆1-自动化"
+    <t>"title": "美式外教科学营---1"
+"subTitle": "美式外教科学营-活动副标题"
+"reqjsonfile":"alertActivityReq"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "QUEENS PALACE高级定制馆---1-自动化"
 "subTitle": "QUEEN'S PALACE高级定制馆-活动副标题"
 "reqjsonfile":"alertGoodsReq"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"title": "美式外教科学营"
-"subTitle": "美式外教科学营-活动副标题"
-"reqjsonfile":"alertActivityReq"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>

--- a/steamcase/activity/activityalertcase.xlsx
+++ b/steamcase/activity/activityalertcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2AF9448-5EEC-48D7-B0DD-4EF9A67F9068}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D68DDC63-76E5-4B0F-91B0-61D0CB4A4E0A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -529,7 +529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
